--- a/application/controllers/file/laporan_evaluasi_pembelian.xlsx
+++ b/application/controllers/file/laporan_evaluasi_pembelian.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\argopuro\application\controllers\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CFABDD-08D9-4E8C-908C-4435F3B6A659}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CD5F12-BF29-4902-9D8A-15F3B36AC475}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F54AB4D7-7B2D-48B6-BA0E-3BB89B47F765}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -184,7 +179,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -438,24 +433,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -470,10 +465,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -482,9 +486,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,13 +495,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,7 +516,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -817,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B920E5-62FF-4488-A89A-1C57F1578694}">
-  <dimension ref="A1:BE40"/>
+  <dimension ref="A1:BE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1234,61 +1229,61 @@
     </row>
     <row r="7" spans="1:55" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="31" t="s">
+      <c r="J7" s="36"/>
+      <c r="K7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="31" t="s">
+      <c r="L7" s="39"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="31" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="33" t="s">
+      <c r="Q7" s="35"/>
+      <c r="R7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="31" t="s">
+      <c r="S7" s="39"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="32"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="35"/>
       <c r="Z7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="34" t="s">
+      <c r="AA7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="35" t="s">
+      <c r="AB7" s="37" t="s">
         <v>19</v>
       </c>
       <c r="AC7" s="10"/>
@@ -1297,11 +1292,11 @@
     </row>
     <row r="8" spans="1:55" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="12" t="s">
         <v>21</v>
       </c>
@@ -1368,522 +1363,522 @@
       <c r="Z8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="38"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
     <row r="9" spans="1:55" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:55" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" s="16" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:55" s="16" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:55" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="29" t="s">
+    <row r="11" spans="1:55" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-    </row>
-    <row r="13" spans="1:55" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+    </row>
+    <row r="12" spans="1:55" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
+    </row>
+    <row r="14" spans="1:55" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:55" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
+    <row r="15" spans="1:55" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="39"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="35"/>
+      <c r="P15" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="39"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA15" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
     </row>
     <row r="16" spans="1:55" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="31" t="s">
+      <c r="S16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="W16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="9" t="s">
+      <c r="X16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AA16" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB16" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="Z16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="38"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:57" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:57" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-    </row>
-    <row r="19" spans="1:57" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="1:57" s="16" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:57" s="16" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="1:57" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+    </row>
+    <row r="20" spans="1:57" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:57" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-    </row>
-    <row r="22" spans="1:57" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
+    <row r="21" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="3"/>
+    </row>
+    <row r="22" spans="1:57" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1911,514 +1906,415 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-    </row>
-    <row r="23" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="3"/>
-    </row>
-    <row r="24" spans="1:57" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-    </row>
-    <row r="25" spans="1:57" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="34" t="s">
+    </row>
+    <row r="23" spans="1:57" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E23" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="9" t="s">
+      <c r="F23" s="35"/>
+      <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I23" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="31" t="s">
+      <c r="J23" s="36"/>
+      <c r="K23" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="31" t="s">
+      <c r="L23" s="39"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="32"/>
-      <c r="P25" s="31" t="s">
+      <c r="O23" s="35"/>
+      <c r="P23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="33" t="s">
+      <c r="Q23" s="35"/>
+      <c r="R23" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="S25" s="33"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="31" t="s">
+      <c r="S23" s="39"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="9" t="s">
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AA25" s="34" t="s">
+      <c r="AA23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AB25" s="35" t="s">
+      <c r="AB23" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-    </row>
-    <row r="26" spans="1:57" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="13" t="s">
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" spans="1:57" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="13" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="14" t="s">
+      <c r="O24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P26" s="13" t="s">
+      <c r="P24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="13" t="s">
+      <c r="Q24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="15" t="s">
+      <c r="R24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S26" s="15" t="s">
+      <c r="S24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="T24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U26" s="13" t="s">
+      <c r="U24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="13" t="s">
+      <c r="V24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="W26" s="13" t="s">
+      <c r="W24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="X26" s="13" t="s">
+      <c r="X24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Y26" s="13" t="s">
+      <c r="Y24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Z26" s="13" t="s">
+      <c r="Z24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-    </row>
-    <row r="27" spans="1:57" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-    </row>
-    <row r="28" spans="1:57" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="25" spans="1:57" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:57" s="16" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:57" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+    </row>
+    <row r="28" spans="1:57" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-    </row>
-    <row r="29" spans="1:57" s="16" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-    </row>
-    <row r="30" spans="1:57" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-    </row>
-    <row r="31" spans="1:57" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
-      <c r="AR31" s="3"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
-      <c r="AU31" s="3"/>
-      <c r="AV31" s="3"/>
-      <c r="AW31" s="3"/>
-      <c r="AX31" s="3"/>
-      <c r="AY31" s="3"/>
-      <c r="AZ31" s="3"/>
-      <c r="BA31" s="3"/>
-      <c r="BB31" s="3"/>
-      <c r="BC31" s="3"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
-    </row>
-    <row r="32" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+    </row>
+    <row r="29" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+    <row r="30" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA33" s="3" t="s">
+      <c r="AA30" s="3" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="31" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
+    <row r="35" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="N38" s="26" t="s">
+      <c r="F35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="N35" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AA38" s="26" t="s">
+      <c r="AA35" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="27" t="s">
+    <row r="36" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="27" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="O39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="AA39" s="28" t="s">
+      <c r="O36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="AA36" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="N40" s="28"/>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="N37" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
